--- a/pred_ohlcv/54_21/2020-01-22 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 STEEM ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>180550.0365947201</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>158144.0625947201</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>152499.4455947201</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>129387.6025947201</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>124517.8490947201</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>128353.7727947201</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>118248.8028947201</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>107820.0368947201</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>134372.4098947201</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>84423.38264823006</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>63478.16646360005</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>318366.0698885</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>319004.0698885</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>338522.06378559</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>364804.06558559</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>347083.32258559</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>354403.33258559</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>318293.9303684499</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>329747.87083661</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>339337.00313661</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>334101.65223661</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>320161.00203661</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>352456.56363661</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>335595.53358997</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>327626.77518997</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>280586.13436597</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>284899.65025974</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>270320.41175974</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>254882.36755974</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>266690.25715974</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>261078.82425974</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>252840.0592597399</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>256725.9241597399</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>256710.9241597399</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>254524.0094597399</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>254524.0094597399</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>254698.1544597399</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>256740.3057597399</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>256740.3057597399</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>252578.7639597399</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>253981.2039597399</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>266432.4428597399</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>265951.3247261</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>265951.3247261</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>267325.6498261</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>254156.3191261</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>248841.7999261</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-332519.6543023198</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-340316.2977023198</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-336004.1088023198</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-344372.1266023198</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-353186.4115023198</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-343675.7087023198</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-349033.7774023198</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-351652.9787023198</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-365495.2855023198</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-365489.7855023198</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-365447.7855023198</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-365453.7855023198</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-365437.7855023198</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-362468.0829023198</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-362429.0829023198</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-360923.0829023198</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-360899.0829023198</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-359146.2718023198</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-358283.3448023198</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-358286.3448023198</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-359658.4655023199</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-355441.5090023199</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-355444.5090023199</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-356596.6682023199</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-364821.0962023199</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-369912.1018023199</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-369927.3756023199</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-331354.0927023199</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-332538.3304023199</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-332533.3304023199</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-333226.0154023199</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-338375.3014023199</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-349269.6853023199</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-344027.4035023199</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-340527.9120023199</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-327532.3638023199</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-327835.9280023199</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-332500.2510023199</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-291359.2433023199</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-291320.4936023199</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-291654.5936023199</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-313271.8947023199</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-308735.2419023199</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-308874.12200232</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-316185.9817023199</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-22 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 STEEM ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>180550.0365947201</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>158144.0625947201</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>152499.4455947201</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>129387.6025947201</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>143431.0257947201</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>124517.8490947201</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>133685.7531947201</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>128353.7727947201</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>118248.8028947201</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>107820.0368947201</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>134372.4098947201</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>103696.9072482301</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>84423.38264823006</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>63478.16646360005</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>318366.0698885</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>319004.0698885</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>338522.06378559</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>364804.06558559</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>347083.32258559</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>354403.33258559</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>318293.9303684499</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>329747.87083661</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>339337.00313661</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>334101.65223661</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>320161.00203661</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>338511.44423661</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>352456.56363661</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>335595.53358997</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>327626.77518997</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>280586.13436597</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>284899.65025974</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>270320.41175974</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>267675.37275974</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>254882.36755974</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>266690.25715974</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>261078.82425974</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>252840.0592597399</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>256725.9241597399</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-337019.6543023198</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-332519.6543023198</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-332813.1679023198</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-340316.2977023198</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-342165.7654023198</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-336004.1088023198</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-344372.1266023198</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-345379.9711023198</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-351599.9711023198</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-353186.4115023198</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-351466.4115023198</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-343675.7087023198</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-349033.7774023198</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-351652.9787023198</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-365495.2855023198</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-365489.7855023198</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-365726.7855023198</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-365447.7855023198</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-365453.7855023198</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-365437.7855023198</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-366138.1983023198</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-362468.0829023198</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-362429.0829023198</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-360923.0829023198</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-360899.0829023198</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-359146.2718023198</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-359291.9841023198</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-358283.3448023198</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-358286.3448023198</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-359658.4655023199</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-355441.5090023199</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-355444.5090023199</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-356596.6682023199</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-364821.0962023199</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-364846.0962023199</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-371618.9149023199</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-369912.1018023199</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-369927.3756023199</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-331341.6775023199</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-331354.0927023199</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-332538.3304023199</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-332533.3304023199</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-333226.0154023199</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-336189.2166023199</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-338375.3014023199</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-349269.6853023199</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-344027.4035023199</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-339878.9120023199</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-340527.9120023199</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-327532.3638023199</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-327835.9280023199</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-332500.2510023199</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-291359.2433023199</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-291320.4936023199</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-291654.5936023199</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-291529.5936023199</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-299432.4814023199</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-313271.8947023199</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-308735.2419023199</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-308874.12200232</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-308736.12200232</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-316185.9817023199</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
